--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -1,97 +1,440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_67BD5748B1CAE2D2553B6BCE90C7A95A0A3ECAF8" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055" tabRatio="647"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RIFF-coal" sheetId="3" r:id="rId2"/>
-    <sheet name="RIFF-natural-gas" sheetId="5" r:id="rId3"/>
+    <sheet name="Electrification Potential" sheetId="15" r:id="rId2"/>
+    <sheet name="RIFF-cement" sheetId="7" r:id="rId3"/>
+    <sheet name="RIFF-ngps" sheetId="8" r:id="rId4"/>
+    <sheet name="RIFF-steel" sheetId="9" r:id="rId5"/>
+    <sheet name="RIFF-chemicals" sheetId="10" r:id="rId6"/>
+    <sheet name="RIFF-mining" sheetId="11" r:id="rId7"/>
+    <sheet name="RIFF-waste-mgmt" sheetId="12" r:id="rId8"/>
+    <sheet name="RIFF-agriculture" sheetId="13" r:id="rId9"/>
+    <sheet name="RIFF-other-industries" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
-  <si>
-    <t>RIFF Recipient Industrial Fuel Fractions for Coal</t>
-  </si>
-  <si>
-    <t>RIFF Recipient Industrial Fuel Fractions for Natural Gas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="135">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Rocky Mountain Institute</t>
-  </si>
-  <si>
-    <t>Reinventing Fire</t>
-  </si>
-  <si>
-    <t>http://www.rmi.org/RFGraph-Fuel_switching_options_industry</t>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>heat</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>RMI's analysis indicates that coal could be shifted to natural gas or "waste fuels (thermal)."</t>
-  </si>
-  <si>
-    <t>We do not model combustible waste fuels, so we assume coal is shifted to gas.</t>
-  </si>
-  <si>
-    <t>This seems particularly reasonable for the United States, where natural gas is relatively</t>
-  </si>
-  <si>
-    <t>inexpensive and combustible waste is not commonly used as an industrial fuel source.</t>
-  </si>
-  <si>
-    <t>The model also has the capability to shift natural gas to other fuel types.  The fuel type that</t>
-  </si>
-  <si>
-    <t>makes the most sense in this case is electricity.</t>
-  </si>
-  <si>
-    <t>Recipient Fuel Fraction</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>natural gas</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>petroleum diesel</t>
-  </si>
-  <si>
-    <t>heat</t>
+    <t>RIFF Recipient Industrial Fuel Fractions</t>
+  </si>
+  <si>
+    <t>However, this policy lever can also represent other fuel shifting, such as</t>
+  </si>
+  <si>
+    <t>from coal to natural gas, if you change the settings in this variable.</t>
+  </si>
+  <si>
+    <t>To type (below)  / From type (right)</t>
+  </si>
+  <si>
+    <t>Ensure that each column adds up to 1.</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>Time (Year)</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[electricity if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hard coal if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[natural gas if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[biomass if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[petroleum diesel if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heat if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[crude oil if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[heavy or residual fuel oil if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[LPG propane or butane if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,cement and other carbonates] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,natural gas and petroleum systems] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,iron and steel] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,chemicals] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,coal mining] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,waste management] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,agriculture] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Industrial Fuel Use[hydrogen if,other industries] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Computers, Electronics</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>Plstics and Rubber</t>
+  </si>
+  <si>
+    <t>Fabricated Metals</t>
+  </si>
+  <si>
+    <t>Iron and Steel</t>
+  </si>
+  <si>
+    <t>Food and Beverage</t>
+  </si>
+  <si>
+    <t>Balance of Manufacturing</t>
+  </si>
+  <si>
+    <t>Forest Products</t>
+  </si>
+  <si>
+    <t>Petroleum Refining</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>NREL Industry Category</t>
+  </si>
+  <si>
+    <t>Width Using Pixel Ruler</t>
+  </si>
+  <si>
+    <t>cement and other carbonates</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum systems</t>
+  </si>
+  <si>
+    <t>iron and steel</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>coal mining</t>
+  </si>
+  <si>
+    <t>waste management</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>other industries</t>
+  </si>
+  <si>
+    <t>EPS Industry Category</t>
+  </si>
+  <si>
+    <t>Apportioned BTUs</t>
+  </si>
+  <si>
+    <t>Fraction Electrification Potential</t>
+  </si>
+  <si>
+    <t>For the U.S., we use this policy to represent electrification of industry, with hydrogen constituting the rest of the</t>
+  </si>
+  <si>
+    <t>potential. This is because electrification has some technical limitations, whereas hydrogen technologies</t>
+  </si>
+  <si>
+    <t>(if commercialized) could theoretically replace all fossil fuels used for energy purposes.</t>
+  </si>
+  <si>
+    <t>NREL</t>
+  </si>
+  <si>
+    <t>Electrification of Industry</t>
+  </si>
+  <si>
+    <t>https://www.nrel.gov/docs/fy18osti/72311.pdf</t>
+  </si>
+  <si>
+    <t>Slide 9 for current electricity use in industry, slide 22 for 2050 electrification potential (medium case used)</t>
+  </si>
+  <si>
+    <t>31% of First Simulated Year's Total Energy Use (BTU), based on NREL electrification potential</t>
+  </si>
+  <si>
+    <t>NREL's electrification potential does not appear to include non-manufacturing industries</t>
+  </si>
+  <si>
+    <t>(which includes agriculture and mining). NREL reports electricity is generally &lt;10%</t>
+  </si>
+  <si>
+    <t>for these industry categories.</t>
+  </si>
+  <si>
+    <t>of site energy use. Therefore, a electrification potential of 0.1 is conservatively used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +458,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,25 +497,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -164,6 +546,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466123</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11901488" y="223837"/>
+          <a:ext cx="4819048" cy="3914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -209,7 +634,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,26 +667,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,23 +702,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,156 +877,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="85.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$23</f>
+        <v>0.4895213177379219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15">
+        <f>1-B2</f>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51047868226207815</v>
       </c>
     </row>
   </sheetData>
@@ -643,72 +1400,5369 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.7109375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="29.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="10">
+        <f>SUM(B4:B83)*0.31</f>
+        <v>7385824488419130</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11">
+        <f t="shared" ref="G2:G13" si="0">F2/SUM($F$2:$F$13)*$B$1</f>
+        <v>109962647470260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" si="0"/>
+        <v>116071683440830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="11">
+        <v>37183800000000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>116071683440830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11">
+        <v>202804000000000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2">
+        <v>22</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>134398791352540.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11">
+        <v>212903000000000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="2">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>140507827323110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11">
+        <v>415915000000000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>164943971205390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11">
+        <v>390100000000000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="2">
+        <v>90</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>549813237351299.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11">
+        <v>221000000000000</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2">
+        <v>107</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>653666848850990</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11">
+        <v>153700000000000</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2">
+        <v>115</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>702539136615550</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1606000000000000</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="2">
+        <v>221</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>1350096949495970</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11">
+        <v>178961000000000</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="2">
+        <v>272</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>1661657783995040</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11">
+        <v>24018400000000</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="2">
+        <v>276</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>1686093927877320</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="11">
+        <v>79170500000000</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+    </row>
+    <row r="15" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11">
+        <v>51876200000000</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11">
+        <v>88130000000000</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="11">
+        <f>G5</f>
+        <v>134398791352540.02</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" ref="G16:G23" si="1">F16/SUM(B4,B12,B20,B28,B36,B44,B52,B60,B68,B76)</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="11">
+        <f>G12</f>
+        <v>1661657783995040</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="11">
+        <f>G8</f>
+        <v>549813237351299.94</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11">
+        <v>149800000000000</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="11">
+        <f>G13+G6</f>
+        <v>1826601755200430</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11">
+        <v>18442700000000</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3266330000000000</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="11">
+        <v>426809000000000</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3316230000000000</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="11">
+        <f>SUM(G2,G3,G4,G7,G9,G10,G11)</f>
+        <v>3213352920519820</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.4895213177379219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11">
+        <v>398300000000000</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="11">
+        <v>68730000000000</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2962000000000000</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="11">
+        <v>83064600000</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="11">
+        <v>782425000000000</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="11">
+        <v>706623000</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11">
+        <v>172637000000</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="11">
+        <v>31000000</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="11">
+        <v>56209700000000</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2075110000000000</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="11">
+        <v>28723100000000</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="11">
+        <v>898648000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="11">
+        <v>361400000000000</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="11">
+        <v>643700000000000</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1553000000000000</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2624750000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="11">
+        <v>1554500000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2689300000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2007990000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="11">
+        <v>38484500000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="11">
+        <v>85000000000</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="11">
+        <v>4170730000000</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="11">
+        <v>844626000000</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="11">
+        <v>9640710000000</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="11">
+        <v>402340000000</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2596880000000000</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="11">
+        <v>208675000000000</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="11">
+        <v>289305000000000</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+      <c r="AH75" s="11"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
+      <c r="AC76" s="11"/>
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="11"/>
+      <c r="AF76" s="11"/>
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="11"/>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11"/>
+      <c r="AD79" s="11"/>
+      <c r="AE79" s="11"/>
+      <c r="AF79" s="11"/>
+      <c r="AG79" s="11"/>
+      <c r="AH79" s="11"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="11"/>
+      <c r="AG80" s="11"/>
+      <c r="AH80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$16</f>
+        <v>0.45659573790741709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
+      <c r="B11" s="15">
+        <f>1-B2</f>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.54340426209258297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$17</f>
+        <v>0.26118963298429049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15">
+        <f>1-B2</f>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73881036701570957</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$18</f>
+        <v>0.73240274577095088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15">
+        <f>1-B2</f>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26759725422904912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$19</f>
+        <v>0.25084722979250818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15">
+        <f>1-B2</f>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.74915277020749182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$20</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <f>1-B2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$21</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <f>1-B2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="15">
+        <f>'Electrification Potential'!$G$22</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <f>1-B2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:K11" si="0">1-C2</f>
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -717,24 +6771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -968,14 +7004,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6449094B-1734-4EC1-9D73-A89B7FA4E0AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A10B04A3-7EC3-4576-AB44-CE74E66AB5B7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67C23DF4-507C-4818-9CBE-108456FDC69C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EE03F69-2E16-4F5F-B63C-CA3B0E9E7625}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{169C540C-940A-48DD-B792-FFF9CB43CDAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAEDD6AA-A622-4F54-BFF8-33A97B5C97CA}"/>
 </file>